--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6276" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
     <sheet name="Plan" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>Cluster Architecture, Installation &amp; Configuration</t>
   </si>
@@ -169,13 +170,94 @@
   </si>
   <si>
     <t>https://github.com/dgkanatsios/CKAD-exercises</t>
+  </si>
+  <si>
+    <t>Certified Kubernetes Administrator: https://www.cncf.io/certification/cka/</t>
+  </si>
+  <si>
+    <t>Exam Curriculum (Topics): https://github.com/cncf/curriculum</t>
+  </si>
+  <si>
+    <t>Candidate Handbook: https://www.cncf.io/certification/candidate-handbook</t>
+  </si>
+  <si>
+    <t>Exam Tips: http://training.linuxfoundation.org/go//Important-Tips-CKA-CKAD</t>
+  </si>
+  <si>
+    <t>CKA - Udemy</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Core Concepts</t>
+  </si>
+  <si>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <t>Logging &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>Application Lifecycle Management</t>
+  </si>
+  <si>
+    <t>Cluster Maintenance</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Design and Install Kubernetes Cluster</t>
+  </si>
+  <si>
+    <t>Install Kubernetes the kubeadm way</t>
+  </si>
+  <si>
+    <t>Toubleshooting</t>
+  </si>
+  <si>
+    <t>Other Topics</t>
+  </si>
+  <si>
+    <t>Lightning labs</t>
+  </si>
+  <si>
+    <t>Mock Exams</t>
+  </si>
+  <si>
+    <t>Course Conclusion</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +281,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1C1D1F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1C1D1F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF1C1D1F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5624D0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF5624D0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A6F73"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +363,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -274,12 +445,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -287,6 +513,15 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,9 +540,55 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,6 +913,26 @@
         <v>47</v>
       </c>
     </row>
+    <row r="12" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="overview"/>
@@ -641,8 +942,13 @@
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://www.cncf.io/certification/cka/"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://github.com/cncf/curriculum"/>
+    <hyperlink ref="B14" r:id="rId10" display="https://www.cncf.io/certification/candidate-handbook"/>
+    <hyperlink ref="B15" r:id="rId11" display="http://training.linuxfoundation.org/go/Important-Tips-CKA-CKAD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -650,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,10 +989,10 @@
       <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="13">
         <v>44317</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="13">
         <v>44323</v>
       </c>
     </row>
@@ -695,280 +1001,280 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>0.15</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>44324</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="13">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>0.2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="13">
         <v>44331</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="13">
         <v>44337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="13">
         <v>44338</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="13">
         <v>44344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6">
         <v>0.3</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="13">
         <v>44345</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="13">
         <v>44351</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1039,4 +1345,1962 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E573"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44417</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44417</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44417</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44421</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44424</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44431</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44435</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44431</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44435</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44431</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44435</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A83" s="21"/>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A85" s="21"/>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A87" s="21"/>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A89" s="21"/>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A91" s="21"/>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A93" s="21"/>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A94" s="22"/>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A95" s="21"/>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A96" s="22"/>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A97" s="21"/>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A98" s="22"/>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A99" s="21"/>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A100" s="22"/>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A101" s="19"/>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A102" s="20"/>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A103" s="21"/>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A104" s="22"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="17"/>
+    </row>
+    <row r="106" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A106" s="18"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="17"/>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A108" s="19"/>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A109" s="20"/>
+    </row>
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A110" s="21"/>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A112" s="21"/>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A114" s="21"/>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A115" s="22"/>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A116" s="21"/>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A117" s="22"/>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A118" s="21"/>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A119" s="22"/>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A120" s="21"/>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
+    </row>
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A122" s="21"/>
+    </row>
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A123" s="22"/>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A124" s="21"/>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A125" s="22"/>
+    </row>
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A126" s="21"/>
+    </row>
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A127" s="22"/>
+    </row>
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A128" s="21"/>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A129" s="22"/>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A130" s="21"/>
+    </row>
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A131" s="22"/>
+    </row>
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A132" s="21"/>
+    </row>
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A133" s="22"/>
+    </row>
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A134" s="21"/>
+    </row>
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A135" s="22"/>
+    </row>
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A136" s="21"/>
+    </row>
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A137" s="22"/>
+    </row>
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A138" s="21"/>
+    </row>
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A139" s="22"/>
+    </row>
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A140" s="21"/>
+    </row>
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A141" s="22"/>
+    </row>
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A142" s="21"/>
+    </row>
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A143" s="22"/>
+    </row>
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A144" s="21"/>
+    </row>
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A145" s="22"/>
+    </row>
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A146" s="21"/>
+    </row>
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A147" s="22"/>
+    </row>
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A148" s="21"/>
+    </row>
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A149" s="22"/>
+    </row>
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A150" s="21"/>
+    </row>
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A151" s="22"/>
+    </row>
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A152" s="21"/>
+    </row>
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A153" s="22"/>
+    </row>
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A154" s="21"/>
+    </row>
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A155" s="22"/>
+    </row>
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A156" s="21"/>
+    </row>
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A157" s="22"/>
+    </row>
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A158" s="21"/>
+    </row>
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A159" s="22"/>
+    </row>
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A160" s="21"/>
+    </row>
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A161" s="22"/>
+    </row>
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A162" s="21"/>
+    </row>
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A163" s="22"/>
+    </row>
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A164" s="21"/>
+    </row>
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A165" s="22"/>
+    </row>
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A166" s="21"/>
+    </row>
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A167" s="22"/>
+    </row>
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A168" s="21"/>
+    </row>
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A169" s="22"/>
+    </row>
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A170" s="21"/>
+    </row>
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A171" s="22"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="17"/>
+    </row>
+    <row r="173" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A173" s="18"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="17"/>
+    </row>
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A175" s="19"/>
+    </row>
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A176" s="20"/>
+    </row>
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A177" s="21"/>
+    </row>
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A178" s="22"/>
+    </row>
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A179" s="21"/>
+    </row>
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A180" s="22"/>
+    </row>
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A181" s="21"/>
+    </row>
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A182" s="22"/>
+    </row>
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A183" s="21"/>
+    </row>
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A184" s="22"/>
+    </row>
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A185" s="21"/>
+    </row>
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A186" s="22"/>
+    </row>
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A187" s="21"/>
+    </row>
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A188" s="22"/>
+    </row>
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A189" s="21"/>
+    </row>
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A190" s="22"/>
+    </row>
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A191" s="21"/>
+    </row>
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A192" s="22"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="17"/>
+    </row>
+    <row r="194" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A194" s="18"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="17"/>
+    </row>
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A196" s="19"/>
+    </row>
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A197" s="20"/>
+    </row>
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A198" s="21"/>
+    </row>
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A199" s="22"/>
+    </row>
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A200" s="21"/>
+    </row>
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A201" s="22"/>
+    </row>
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A202" s="21"/>
+    </row>
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A203" s="22"/>
+    </row>
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A204" s="21"/>
+    </row>
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A205" s="22"/>
+    </row>
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A206" s="21"/>
+    </row>
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A207" s="22"/>
+    </row>
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A208" s="21"/>
+    </row>
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A209" s="22"/>
+    </row>
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A210" s="21"/>
+    </row>
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A211" s="22"/>
+    </row>
+    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A212" s="21"/>
+    </row>
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A213" s="22"/>
+    </row>
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A214" s="21"/>
+    </row>
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A215" s="22"/>
+    </row>
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A216" s="21"/>
+    </row>
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A217" s="22"/>
+    </row>
+    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A218" s="21"/>
+    </row>
+    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A219" s="22"/>
+    </row>
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A220" s="21"/>
+    </row>
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A221" s="22"/>
+    </row>
+    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A222" s="21"/>
+    </row>
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A223" s="22"/>
+    </row>
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A224" s="21"/>
+    </row>
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A225" s="22"/>
+    </row>
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A226" s="21"/>
+    </row>
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A227" s="22"/>
+    </row>
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A228" s="21"/>
+    </row>
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A229" s="22"/>
+    </row>
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A230" s="21"/>
+    </row>
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A231" s="22"/>
+    </row>
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A232" s="21"/>
+    </row>
+    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A233" s="22"/>
+    </row>
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A234" s="21"/>
+    </row>
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A235" s="22"/>
+    </row>
+    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A236" s="21"/>
+    </row>
+    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A237" s="22"/>
+    </row>
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A238" s="21"/>
+    </row>
+    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A239" s="22"/>
+    </row>
+    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A240" s="21"/>
+    </row>
+    <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A241" s="22"/>
+    </row>
+    <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A242" s="21"/>
+    </row>
+    <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A243" s="22"/>
+    </row>
+    <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A244" s="21"/>
+    </row>
+    <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A245" s="22"/>
+    </row>
+    <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A246" s="21"/>
+    </row>
+    <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A247" s="22"/>
+    </row>
+    <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A248" s="21"/>
+    </row>
+    <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A249" s="22"/>
+    </row>
+    <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A250" s="21"/>
+    </row>
+    <row r="251" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A251" s="22"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="17"/>
+    </row>
+    <row r="253" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A253" s="18"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="17"/>
+    </row>
+    <row r="255" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A255" s="19"/>
+    </row>
+    <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A256" s="20"/>
+    </row>
+    <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A257" s="21"/>
+    </row>
+    <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A258" s="22"/>
+    </row>
+    <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A259" s="21"/>
+    </row>
+    <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A260" s="22"/>
+    </row>
+    <row r="261" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A261" s="21"/>
+    </row>
+    <row r="262" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A262" s="22"/>
+    </row>
+    <row r="263" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A263" s="21"/>
+    </row>
+    <row r="264" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A264" s="22"/>
+    </row>
+    <row r="265" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A265" s="21"/>
+    </row>
+    <row r="266" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A266" s="22"/>
+    </row>
+    <row r="267" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A267" s="21"/>
+    </row>
+    <row r="268" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A268" s="22"/>
+    </row>
+    <row r="269" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A269" s="21"/>
+    </row>
+    <row r="270" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A270" s="22"/>
+    </row>
+    <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A271" s="21"/>
+    </row>
+    <row r="272" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A272" s="22"/>
+    </row>
+    <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A273" s="21"/>
+    </row>
+    <row r="274" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A274" s="22"/>
+    </row>
+    <row r="275" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A275" s="21"/>
+    </row>
+    <row r="276" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A276" s="22"/>
+    </row>
+    <row r="277" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A277" s="21"/>
+    </row>
+    <row r="278" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A278" s="22"/>
+    </row>
+    <row r="279" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A279" s="21"/>
+    </row>
+    <row r="280" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A280" s="22"/>
+    </row>
+    <row r="281" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A281" s="21"/>
+    </row>
+    <row r="282" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A282" s="22"/>
+    </row>
+    <row r="283" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A283" s="21"/>
+    </row>
+    <row r="284" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A284" s="22"/>
+    </row>
+    <row r="285" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A285" s="21"/>
+    </row>
+    <row r="286" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A286" s="22"/>
+    </row>
+    <row r="287" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A287" s="21"/>
+    </row>
+    <row r="288" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A288" s="22"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="17"/>
+    </row>
+    <row r="290" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A290" s="18"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="17"/>
+    </row>
+    <row r="292" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A292" s="19"/>
+    </row>
+    <row r="293" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A293" s="20"/>
+    </row>
+    <row r="294" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A294" s="21"/>
+    </row>
+    <row r="295" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A295" s="22"/>
+    </row>
+    <row r="296" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A296" s="21"/>
+    </row>
+    <row r="297" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A297" s="22"/>
+    </row>
+    <row r="298" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A298" s="21"/>
+    </row>
+    <row r="299" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A299" s="22"/>
+    </row>
+    <row r="300" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A300" s="21"/>
+    </row>
+    <row r="301" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A301" s="22"/>
+    </row>
+    <row r="302" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A302" s="21"/>
+    </row>
+    <row r="303" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A303" s="22"/>
+    </row>
+    <row r="304" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A304" s="21"/>
+    </row>
+    <row r="305" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A305" s="22"/>
+    </row>
+    <row r="306" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A306" s="21"/>
+    </row>
+    <row r="307" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A307" s="22"/>
+    </row>
+    <row r="308" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A308" s="21"/>
+    </row>
+    <row r="309" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A309" s="22"/>
+    </row>
+    <row r="310" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A310" s="21"/>
+    </row>
+    <row r="311" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A311" s="22"/>
+    </row>
+    <row r="312" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A312" s="21"/>
+    </row>
+    <row r="313" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A313" s="22"/>
+    </row>
+    <row r="314" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A314" s="21"/>
+    </row>
+    <row r="315" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A315" s="22"/>
+    </row>
+    <row r="316" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A316" s="21"/>
+    </row>
+    <row r="317" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A317" s="22"/>
+    </row>
+    <row r="318" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A318" s="21"/>
+    </row>
+    <row r="319" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A319" s="22"/>
+    </row>
+    <row r="320" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A320" s="21"/>
+    </row>
+    <row r="321" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A321" s="22"/>
+    </row>
+    <row r="322" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A322" s="21"/>
+    </row>
+    <row r="323" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A323" s="22"/>
+    </row>
+    <row r="324" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A324" s="21"/>
+    </row>
+    <row r="325" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A325" s="22"/>
+    </row>
+    <row r="326" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A326" s="21"/>
+    </row>
+    <row r="327" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A327" s="22"/>
+    </row>
+    <row r="328" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A328" s="21"/>
+    </row>
+    <row r="329" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A329" s="22"/>
+    </row>
+    <row r="330" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A330" s="21"/>
+    </row>
+    <row r="331" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A331" s="22"/>
+    </row>
+    <row r="332" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A332" s="21"/>
+    </row>
+    <row r="333" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A333" s="22"/>
+    </row>
+    <row r="334" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A334" s="21"/>
+    </row>
+    <row r="335" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A335" s="22"/>
+    </row>
+    <row r="336" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A336" s="21"/>
+    </row>
+    <row r="337" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A337" s="22"/>
+    </row>
+    <row r="338" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A338" s="21"/>
+    </row>
+    <row r="339" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A339" s="22"/>
+    </row>
+    <row r="340" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A340" s="21"/>
+    </row>
+    <row r="341" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A341" s="22"/>
+    </row>
+    <row r="342" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A342" s="21"/>
+    </row>
+    <row r="343" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A343" s="22"/>
+    </row>
+    <row r="344" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A344" s="21"/>
+    </row>
+    <row r="345" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A345" s="22"/>
+    </row>
+    <row r="346" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A346" s="21"/>
+    </row>
+    <row r="347" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A347" s="22"/>
+    </row>
+    <row r="348" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A348" s="21"/>
+    </row>
+    <row r="349" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A349" s="22"/>
+    </row>
+    <row r="350" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A350" s="21"/>
+    </row>
+    <row r="351" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A351" s="22"/>
+    </row>
+    <row r="352" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A352" s="21"/>
+    </row>
+    <row r="353" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A353" s="22"/>
+    </row>
+    <row r="354" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A354" s="21"/>
+    </row>
+    <row r="355" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A355" s="22"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="17"/>
+    </row>
+    <row r="357" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A357" s="18"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="17"/>
+    </row>
+    <row r="359" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A359" s="19"/>
+    </row>
+    <row r="360" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A360" s="20"/>
+    </row>
+    <row r="361" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A361" s="21"/>
+    </row>
+    <row r="362" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A362" s="22"/>
+    </row>
+    <row r="363" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A363" s="21"/>
+    </row>
+    <row r="364" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A364" s="22"/>
+    </row>
+    <row r="365" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A365" s="21"/>
+    </row>
+    <row r="366" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A366" s="22"/>
+    </row>
+    <row r="367" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A367" s="21"/>
+    </row>
+    <row r="368" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A368" s="22"/>
+    </row>
+    <row r="369" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A369" s="21"/>
+    </row>
+    <row r="370" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A370" s="22"/>
+    </row>
+    <row r="371" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A371" s="21"/>
+    </row>
+    <row r="372" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A372" s="22"/>
+    </row>
+    <row r="373" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A373" s="21"/>
+    </row>
+    <row r="374" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A374" s="22"/>
+    </row>
+    <row r="375" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A375" s="21"/>
+    </row>
+    <row r="376" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A376" s="22"/>
+    </row>
+    <row r="377" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A377" s="21"/>
+    </row>
+    <row r="378" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A378" s="22"/>
+    </row>
+    <row r="379" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A379" s="21"/>
+    </row>
+    <row r="380" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A380" s="22"/>
+    </row>
+    <row r="381" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A381" s="21"/>
+    </row>
+    <row r="382" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A382" s="22"/>
+    </row>
+    <row r="383" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A383" s="21"/>
+    </row>
+    <row r="384" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A384" s="22"/>
+    </row>
+    <row r="385" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A385" s="21"/>
+    </row>
+    <row r="386" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A386" s="22"/>
+    </row>
+    <row r="387" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A387" s="21"/>
+    </row>
+    <row r="388" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A388" s="22"/>
+    </row>
+    <row r="389" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A389" s="21"/>
+    </row>
+    <row r="390" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A390" s="22"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="17"/>
+    </row>
+    <row r="392" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A392" s="18"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="17"/>
+    </row>
+    <row r="394" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A394" s="19"/>
+    </row>
+    <row r="395" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A395" s="20"/>
+    </row>
+    <row r="396" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A396" s="21"/>
+    </row>
+    <row r="397" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A397" s="22"/>
+    </row>
+    <row r="398" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A398" s="21"/>
+    </row>
+    <row r="399" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A399" s="22"/>
+    </row>
+    <row r="400" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A400" s="21"/>
+    </row>
+    <row r="401" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A401" s="22"/>
+    </row>
+    <row r="402" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A402" s="21"/>
+    </row>
+    <row r="403" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A403" s="22"/>
+    </row>
+    <row r="404" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A404" s="21"/>
+    </row>
+    <row r="405" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A405" s="22"/>
+    </row>
+    <row r="406" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A406" s="21"/>
+    </row>
+    <row r="407" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A407" s="22"/>
+    </row>
+    <row r="408" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A408" s="21"/>
+    </row>
+    <row r="409" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A409" s="22"/>
+    </row>
+    <row r="410" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A410" s="21"/>
+    </row>
+    <row r="411" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A411" s="22"/>
+    </row>
+    <row r="412" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A412" s="21"/>
+    </row>
+    <row r="413" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A413" s="22"/>
+    </row>
+    <row r="414" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A414" s="21"/>
+    </row>
+    <row r="415" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A415" s="22"/>
+    </row>
+    <row r="416" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A416" s="21"/>
+    </row>
+    <row r="417" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A417" s="22"/>
+    </row>
+    <row r="418" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A418" s="21"/>
+    </row>
+    <row r="419" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A419" s="22"/>
+    </row>
+    <row r="420" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A420" s="21"/>
+    </row>
+    <row r="421" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A421" s="22"/>
+    </row>
+    <row r="422" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A422" s="21"/>
+    </row>
+    <row r="423" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A423" s="22"/>
+    </row>
+    <row r="424" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A424" s="21"/>
+    </row>
+    <row r="425" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A425" s="22"/>
+    </row>
+    <row r="426" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A426" s="21"/>
+    </row>
+    <row r="427" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A427" s="22"/>
+    </row>
+    <row r="428" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A428" s="21"/>
+    </row>
+    <row r="429" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A429" s="22"/>
+    </row>
+    <row r="430" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A430" s="21"/>
+    </row>
+    <row r="431" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A431" s="22"/>
+    </row>
+    <row r="432" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A432" s="21"/>
+    </row>
+    <row r="433" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A433" s="22"/>
+    </row>
+    <row r="434" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A434" s="21"/>
+    </row>
+    <row r="435" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A435" s="22"/>
+    </row>
+    <row r="436" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A436" s="21"/>
+    </row>
+    <row r="437" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A437" s="22"/>
+    </row>
+    <row r="438" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A438" s="21"/>
+    </row>
+    <row r="439" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A439" s="22"/>
+    </row>
+    <row r="440" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A440" s="21"/>
+    </row>
+    <row r="441" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A441" s="22"/>
+    </row>
+    <row r="442" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A442" s="21"/>
+    </row>
+    <row r="443" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A443" s="22"/>
+    </row>
+    <row r="444" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A444" s="21"/>
+    </row>
+    <row r="445" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A445" s="22"/>
+    </row>
+    <row r="446" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A446" s="21"/>
+    </row>
+    <row r="447" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A447" s="22"/>
+    </row>
+    <row r="448" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A448" s="21"/>
+    </row>
+    <row r="449" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A449" s="22"/>
+    </row>
+    <row r="450" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A450" s="21"/>
+    </row>
+    <row r="451" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A451" s="22"/>
+    </row>
+    <row r="452" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A452" s="21"/>
+    </row>
+    <row r="453" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A453" s="22"/>
+    </row>
+    <row r="454" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A454" s="21"/>
+    </row>
+    <row r="455" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A455" s="22"/>
+    </row>
+    <row r="456" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A456" s="21"/>
+    </row>
+    <row r="457" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A457" s="22"/>
+    </row>
+    <row r="458" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A458" s="21"/>
+    </row>
+    <row r="459" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A459" s="22"/>
+    </row>
+    <row r="460" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A460" s="21"/>
+    </row>
+    <row r="461" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A461" s="22"/>
+    </row>
+    <row r="462" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A462" s="21"/>
+    </row>
+    <row r="463" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A463" s="22"/>
+    </row>
+    <row r="464" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A464" s="21"/>
+    </row>
+    <row r="465" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A465" s="22"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="17"/>
+    </row>
+    <row r="467" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A467" s="18"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="17"/>
+    </row>
+    <row r="469" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A469" s="21"/>
+    </row>
+    <row r="470" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A470" s="22"/>
+    </row>
+    <row r="471" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A471" s="21"/>
+    </row>
+    <row r="472" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A472" s="22"/>
+    </row>
+    <row r="473" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A473" s="21"/>
+    </row>
+    <row r="474" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A474" s="22"/>
+    </row>
+    <row r="475" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A475" s="21"/>
+    </row>
+    <row r="476" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A476" s="22"/>
+    </row>
+    <row r="477" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A477" s="21"/>
+    </row>
+    <row r="478" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A478" s="22"/>
+    </row>
+    <row r="479" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A479" s="21"/>
+    </row>
+    <row r="480" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A480" s="22"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" s="17"/>
+    </row>
+    <row r="482" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A482" s="18"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" s="17"/>
+    </row>
+    <row r="484" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A484" s="21"/>
+    </row>
+    <row r="485" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A485" s="22"/>
+    </row>
+    <row r="486" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A486" s="21"/>
+    </row>
+    <row r="487" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A487" s="22"/>
+    </row>
+    <row r="488" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A488" s="21"/>
+    </row>
+    <row r="489" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A489" s="22"/>
+    </row>
+    <row r="490" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A490" s="21"/>
+    </row>
+    <row r="491" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A491" s="22"/>
+    </row>
+    <row r="492" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A492" s="21"/>
+    </row>
+    <row r="493" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A493" s="22"/>
+    </row>
+    <row r="494" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A494" s="21"/>
+    </row>
+    <row r="495" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A495" s="22"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" s="17"/>
+    </row>
+    <row r="497" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A497" s="18"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" s="17"/>
+    </row>
+    <row r="499" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A499" s="21"/>
+    </row>
+    <row r="500" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A500" s="22"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" s="17"/>
+    </row>
+    <row r="502" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A502" s="18"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" s="17"/>
+    </row>
+    <row r="504" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A504" s="19"/>
+    </row>
+    <row r="505" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A505" s="20"/>
+    </row>
+    <row r="506" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A506" s="21"/>
+    </row>
+    <row r="507" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A507" s="22"/>
+    </row>
+    <row r="508" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A508" s="21"/>
+    </row>
+    <row r="509" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A509" s="22"/>
+    </row>
+    <row r="510" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A510" s="21"/>
+    </row>
+    <row r="511" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A511" s="22"/>
+    </row>
+    <row r="512" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A512" s="21"/>
+    </row>
+    <row r="513" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A513" s="22"/>
+    </row>
+    <row r="514" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A514" s="21"/>
+    </row>
+    <row r="515" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A515" s="22"/>
+    </row>
+    <row r="516" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A516" s="21"/>
+    </row>
+    <row r="517" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A517" s="22"/>
+    </row>
+    <row r="518" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A518" s="21"/>
+    </row>
+    <row r="519" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A519" s="22"/>
+    </row>
+    <row r="520" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A520" s="21"/>
+    </row>
+    <row r="521" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A521" s="22"/>
+    </row>
+    <row r="522" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A522" s="21"/>
+    </row>
+    <row r="523" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A523" s="22"/>
+    </row>
+    <row r="524" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A524" s="21"/>
+    </row>
+    <row r="525" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A525" s="22"/>
+    </row>
+    <row r="526" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A526" s="21"/>
+    </row>
+    <row r="527" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A527" s="22"/>
+    </row>
+    <row r="528" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A528" s="21"/>
+    </row>
+    <row r="529" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A529" s="22"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" s="17"/>
+    </row>
+    <row r="531" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A531" s="18"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" s="17"/>
+    </row>
+    <row r="533" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A533" s="21"/>
+    </row>
+    <row r="534" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A534" s="22"/>
+    </row>
+    <row r="535" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A535" s="21"/>
+    </row>
+    <row r="536" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A536" s="22"/>
+    </row>
+    <row r="537" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A537" s="21"/>
+    </row>
+    <row r="538" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A538" s="22"/>
+    </row>
+    <row r="539" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A539" s="21"/>
+    </row>
+    <row r="540" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A540" s="22"/>
+    </row>
+    <row r="541" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A541" s="21"/>
+    </row>
+    <row r="542" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A542" s="22"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" s="17"/>
+    </row>
+    <row r="544" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A544" s="18"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="17"/>
+    </row>
+    <row r="546" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A546" s="21"/>
+    </row>
+    <row r="547" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A547" s="22"/>
+    </row>
+    <row r="548" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A548" s="21"/>
+    </row>
+    <row r="549" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A549" s="22"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" s="17"/>
+    </row>
+    <row r="551" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A551" s="18"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" s="17"/>
+    </row>
+    <row r="553" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A553" s="21"/>
+    </row>
+    <row r="554" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A554" s="22"/>
+    </row>
+    <row r="555" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A555" s="21"/>
+    </row>
+    <row r="556" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A556" s="22"/>
+    </row>
+    <row r="557" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A557" s="21"/>
+    </row>
+    <row r="558" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A558" s="22"/>
+    </row>
+    <row r="559" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A559" s="21"/>
+    </row>
+    <row r="560" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A560" s="23"/>
+    </row>
+    <row r="561" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A561" s="21"/>
+    </row>
+    <row r="562" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A562" s="22"/>
+    </row>
+    <row r="563" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A563" s="21"/>
+    </row>
+    <row r="564" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A564" s="23"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" s="17"/>
+    </row>
+    <row r="566" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A566" s="18"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" s="17"/>
+    </row>
+    <row r="568" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A568" s="21"/>
+    </row>
+    <row r="569" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A569" s="22"/>
+    </row>
+    <row r="570" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A570" s="21"/>
+    </row>
+    <row r="571" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A571" s="22"/>
+    </row>
+    <row r="572" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A572" s="21"/>
+    </row>
+    <row r="573" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A573" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:E1" r:id="rId1" display="CKA - Udemy"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
-    <sheet name="Plan" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="CKAPlan" sheetId="1" r:id="rId2"/>
+    <sheet name="CoursePlan" sheetId="3" r:id="rId3"/>
+    <sheet name="MachineSetup" sheetId="4" r:id="rId4"/>
+    <sheet name="ProductIdeas" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>Cluster Architecture, Installation &amp; Configuration</t>
   </si>
@@ -251,6 +253,27 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>1. Oracle virtual box</t>
+  </si>
+  <si>
+    <t>2. Create 3 VMs with Ubuntu OS</t>
+  </si>
+  <si>
+    <t>3. Install Kubernetes with kubeadm</t>
+  </si>
+  <si>
+    <t>Port etcd on NonStop</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Cycle2</t>
+  </si>
+  <si>
+    <t>Cycle1</t>
   </si>
 </sst>
 </file>
@@ -350,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +407,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -468,9 +497,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -479,9 +506,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -492,7 +517,31 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -505,7 +554,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -513,6 +562,36 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -540,37 +619,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,9 +629,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
@@ -914,22 +979,22 @@
       </c>
     </row>
     <row r="12" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -983,298 +1048,298 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="25">
         <v>44317</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="25">
         <v>44323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>0.15</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="25">
         <v>44324</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="25">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>0.2</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="25">
         <v>44331</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="25">
         <v>44337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="25">
         <v>44338</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="25">
         <v>44344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6">
         <v>0.3</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="25">
         <v>44345</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="25">
         <v>44351</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1349,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E573"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,1947 +1425,2096 @@
     <col min="1" max="1" width="46.77734375" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="4" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44417</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44417</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="4">
         <v>44417</v>
       </c>
       <c r="D4" s="4">
+        <v>44417</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44417</v>
+      </c>
+      <c r="D5" s="4">
         <v>44421</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44424</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44427</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="4">
-        <v>44424</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C7" s="4">
+        <v>44427</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44427</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4">
         <v>44428</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="D8" s="4">
+        <v>44431</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="4">
-        <v>44431</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44435</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="C9" s="4">
+        <v>44432</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44433</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4">
-        <v>44431</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44435</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="C10" s="4">
+        <v>44434</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44439</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="4">
-        <v>44431</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44435</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="C11" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44441</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="4">
+        <v>44442</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44447</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44448</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44448</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44449</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44449</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44452</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44454</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44454</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44455</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="13"/>
     </row>
     <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="12"/>
     </row>
     <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="12"/>
     </row>
     <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="13"/>
     </row>
     <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="11"/>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="13"/>
     </row>
     <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="12"/>
     </row>
     <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="13"/>
     </row>
     <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="12"/>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
+      <c r="A59" s="13"/>
     </row>
     <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="12"/>
     </row>
     <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="13"/>
     </row>
     <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="12"/>
     </row>
     <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+      <c r="A65" s="13"/>
     </row>
     <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="12"/>
     </row>
     <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
+      <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="12"/>
     </row>
     <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="12"/>
     </row>
     <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="12"/>
     </row>
     <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
+      <c r="A73" s="13"/>
     </row>
     <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
+      <c r="A74" s="12"/>
     </row>
     <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
+      <c r="A75" s="13"/>
     </row>
     <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="12"/>
     </row>
     <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
+      <c r="A77" s="13"/>
     </row>
     <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="12"/>
     </row>
     <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
+      <c r="A79" s="13"/>
     </row>
     <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="12"/>
     </row>
     <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
+      <c r="A81" s="13"/>
     </row>
     <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+      <c r="A82" s="12"/>
     </row>
     <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
+      <c r="A83" s="13"/>
     </row>
     <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+      <c r="A84" s="12"/>
     </row>
     <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="13"/>
     </row>
     <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+      <c r="A86" s="12"/>
     </row>
     <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
+      <c r="A87" s="13"/>
     </row>
     <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
+      <c r="A88" s="12"/>
     </row>
     <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A89" s="21"/>
+      <c r="A89" s="13"/>
     </row>
     <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
+      <c r="A90" s="12"/>
     </row>
     <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
+      <c r="A91" s="13"/>
     </row>
     <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
+      <c r="A92" s="12"/>
     </row>
     <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
+      <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
+      <c r="A94" s="12"/>
     </row>
     <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
+      <c r="A95" s="13"/>
     </row>
     <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+      <c r="A96" s="12"/>
     </row>
     <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A97" s="21"/>
+      <c r="A97" s="13"/>
     </row>
     <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
+      <c r="A98" s="12"/>
     </row>
     <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A99" s="21"/>
+      <c r="A99" s="13"/>
     </row>
     <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
+      <c r="A100" s="12"/>
     </row>
     <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A101" s="19"/>
+      <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A102" s="20"/>
+      <c r="A102" s="10"/>
     </row>
     <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A103" s="21"/>
+      <c r="A103" s="11"/>
     </row>
     <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A104" s="22"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
-    </row>
-    <row r="106" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A106" s="18"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
-    </row>
-    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A108" s="19"/>
+      <c r="A104" s="12"/>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="9"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8"/>
     </row>
     <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A109" s="20"/>
+      <c r="A109" s="10"/>
     </row>
     <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A110" s="21"/>
+      <c r="A110" s="11"/>
     </row>
     <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
+      <c r="A111" s="12"/>
     </row>
     <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A112" s="21"/>
+      <c r="A112" s="13"/>
     </row>
     <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A113" s="22"/>
+      <c r="A113" s="12"/>
     </row>
     <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
+      <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
+      <c r="A115" s="12"/>
     </row>
     <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A116" s="21"/>
+      <c r="A116" s="13"/>
     </row>
     <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A117" s="22"/>
+      <c r="A117" s="12"/>
     </row>
     <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A118" s="21"/>
+      <c r="A118" s="13"/>
     </row>
     <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
+      <c r="A119" s="12"/>
     </row>
     <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A120" s="21"/>
+      <c r="A120" s="13"/>
     </row>
     <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
+      <c r="A121" s="12"/>
     </row>
     <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
+      <c r="A122" s="13"/>
     </row>
     <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A123" s="22"/>
+      <c r="A123" s="12"/>
     </row>
     <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
+      <c r="A124" s="13"/>
     </row>
     <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A125" s="22"/>
+      <c r="A125" s="12"/>
     </row>
     <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A126" s="21"/>
+      <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
+      <c r="A127" s="12"/>
     </row>
     <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
+      <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A129" s="22"/>
+      <c r="A129" s="12"/>
     </row>
     <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A130" s="21"/>
+      <c r="A130" s="13"/>
     </row>
     <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A131" s="22"/>
+      <c r="A131" s="12"/>
     </row>
     <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A132" s="21"/>
+      <c r="A132" s="13"/>
     </row>
     <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A133" s="22"/>
+      <c r="A133" s="12"/>
     </row>
     <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
+      <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A135" s="22"/>
+      <c r="A135" s="12"/>
     </row>
     <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
+      <c r="A136" s="13"/>
     </row>
     <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A137" s="22"/>
+      <c r="A137" s="12"/>
     </row>
     <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A138" s="21"/>
+      <c r="A138" s="13"/>
     </row>
     <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A139" s="22"/>
+      <c r="A139" s="12"/>
     </row>
     <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A140" s="21"/>
+      <c r="A140" s="13"/>
     </row>
     <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A141" s="22"/>
+      <c r="A141" s="12"/>
     </row>
     <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A142" s="21"/>
+      <c r="A142" s="13"/>
     </row>
     <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A143" s="22"/>
+      <c r="A143" s="12"/>
     </row>
     <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A144" s="21"/>
+      <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A145" s="22"/>
+      <c r="A145" s="12"/>
     </row>
     <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A146" s="21"/>
+      <c r="A146" s="13"/>
     </row>
     <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A147" s="22"/>
+      <c r="A147" s="12"/>
     </row>
     <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A148" s="21"/>
+      <c r="A148" s="13"/>
     </row>
     <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A149" s="22"/>
+      <c r="A149" s="12"/>
     </row>
     <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A150" s="21"/>
+      <c r="A150" s="13"/>
     </row>
     <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A151" s="22"/>
+      <c r="A151" s="12"/>
     </row>
     <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
+      <c r="A152" s="13"/>
     </row>
     <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A153" s="22"/>
+      <c r="A153" s="12"/>
     </row>
     <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A154" s="21"/>
+      <c r="A154" s="13"/>
     </row>
     <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A155" s="22"/>
+      <c r="A155" s="12"/>
     </row>
     <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A156" s="21"/>
+      <c r="A156" s="13"/>
     </row>
     <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A157" s="22"/>
+      <c r="A157" s="12"/>
     </row>
     <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A158" s="21"/>
+      <c r="A158" s="13"/>
     </row>
     <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A159" s="22"/>
+      <c r="A159" s="12"/>
     </row>
     <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A160" s="21"/>
+      <c r="A160" s="13"/>
     </row>
     <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A161" s="22"/>
+      <c r="A161" s="12"/>
     </row>
     <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A162" s="21"/>
+      <c r="A162" s="13"/>
     </row>
     <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A163" s="22"/>
+      <c r="A163" s="12"/>
     </row>
     <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
+      <c r="A164" s="13"/>
     </row>
     <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A165" s="22"/>
+      <c r="A165" s="12"/>
     </row>
     <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A166" s="21"/>
+      <c r="A166" s="13"/>
     </row>
     <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A167" s="22"/>
+      <c r="A167" s="12"/>
     </row>
     <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A168" s="21"/>
+      <c r="A168" s="13"/>
     </row>
     <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A169" s="22"/>
+      <c r="A169" s="12"/>
     </row>
     <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A170" s="21"/>
+      <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A171" s="22"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="17"/>
-    </row>
-    <row r="173" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A173" s="18"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="17"/>
-    </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A175" s="19"/>
+      <c r="A171" s="12"/>
+    </row>
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A172" s="13"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="8"/>
+    </row>
+    <row r="174" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A174" s="9"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="8"/>
     </row>
     <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A176" s="20"/>
+      <c r="A176" s="10"/>
     </row>
     <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A177" s="21"/>
+      <c r="A177" s="11"/>
     </row>
     <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A178" s="22"/>
+      <c r="A178" s="12"/>
     </row>
     <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A179" s="21"/>
+      <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A180" s="22"/>
+      <c r="A180" s="12"/>
     </row>
     <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A181" s="21"/>
+      <c r="A181" s="13"/>
     </row>
     <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A182" s="22"/>
+      <c r="A182" s="12"/>
     </row>
     <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A183" s="21"/>
+      <c r="A183" s="13"/>
     </row>
     <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A184" s="22"/>
+      <c r="A184" s="12"/>
     </row>
     <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A185" s="21"/>
+      <c r="A185" s="13"/>
     </row>
     <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A186" s="22"/>
+      <c r="A186" s="12"/>
     </row>
     <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A187" s="21"/>
+      <c r="A187" s="13"/>
     </row>
     <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A188" s="22"/>
+      <c r="A188" s="12"/>
     </row>
     <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A189" s="21"/>
+      <c r="A189" s="13"/>
     </row>
     <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A190" s="22"/>
+      <c r="A190" s="12"/>
     </row>
     <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A191" s="21"/>
+      <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A192" s="22"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="17"/>
-    </row>
-    <row r="194" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A194" s="18"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="17"/>
-    </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A196" s="19"/>
+      <c r="A192" s="12"/>
+    </row>
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A193" s="13"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="8"/>
+    </row>
+    <row r="195" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A195" s="9"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="8"/>
     </row>
     <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A197" s="20"/>
+      <c r="A197" s="10"/>
     </row>
     <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A198" s="21"/>
+      <c r="A198" s="11"/>
     </row>
     <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A199" s="22"/>
+      <c r="A199" s="12"/>
     </row>
     <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A200" s="21"/>
+      <c r="A200" s="13"/>
     </row>
     <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A201" s="22"/>
+      <c r="A201" s="12"/>
     </row>
     <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A202" s="21"/>
+      <c r="A202" s="13"/>
     </row>
     <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A203" s="22"/>
+      <c r="A203" s="12"/>
     </row>
     <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A204" s="21"/>
+      <c r="A204" s="13"/>
     </row>
     <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A205" s="22"/>
+      <c r="A205" s="12"/>
     </row>
     <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A206" s="21"/>
+      <c r="A206" s="13"/>
     </row>
     <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A207" s="22"/>
+      <c r="A207" s="12"/>
     </row>
     <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A208" s="21"/>
+      <c r="A208" s="13"/>
     </row>
     <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A209" s="22"/>
+      <c r="A209" s="12"/>
     </row>
     <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A210" s="21"/>
+      <c r="A210" s="13"/>
     </row>
     <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A211" s="22"/>
+      <c r="A211" s="12"/>
     </row>
     <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A212" s="21"/>
+      <c r="A212" s="13"/>
     </row>
     <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A213" s="22"/>
+      <c r="A213" s="12"/>
     </row>
     <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A214" s="21"/>
+      <c r="A214" s="13"/>
     </row>
     <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A215" s="22"/>
+      <c r="A215" s="12"/>
     </row>
     <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A216" s="21"/>
+      <c r="A216" s="13"/>
     </row>
     <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A217" s="22"/>
+      <c r="A217" s="12"/>
     </row>
     <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A218" s="21"/>
+      <c r="A218" s="13"/>
     </row>
     <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A219" s="22"/>
+      <c r="A219" s="12"/>
     </row>
     <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A220" s="21"/>
+      <c r="A220" s="13"/>
     </row>
     <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A221" s="22"/>
+      <c r="A221" s="12"/>
     </row>
     <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A222" s="21"/>
+      <c r="A222" s="13"/>
     </row>
     <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A223" s="22"/>
+      <c r="A223" s="12"/>
     </row>
     <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A224" s="21"/>
+      <c r="A224" s="13"/>
     </row>
     <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A225" s="22"/>
+      <c r="A225" s="12"/>
     </row>
     <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A226" s="21"/>
+      <c r="A226" s="13"/>
     </row>
     <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A227" s="22"/>
+      <c r="A227" s="12"/>
     </row>
     <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A228" s="21"/>
+      <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A229" s="22"/>
+      <c r="A229" s="12"/>
     </row>
     <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A230" s="21"/>
+      <c r="A230" s="13"/>
     </row>
     <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A231" s="22"/>
+      <c r="A231" s="12"/>
     </row>
     <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A232" s="21"/>
+      <c r="A232" s="13"/>
     </row>
     <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A233" s="22"/>
+      <c r="A233" s="12"/>
     </row>
     <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A234" s="21"/>
+      <c r="A234" s="13"/>
     </row>
     <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A235" s="22"/>
+      <c r="A235" s="12"/>
     </row>
     <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A236" s="21"/>
+      <c r="A236" s="13"/>
     </row>
     <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A237" s="22"/>
+      <c r="A237" s="12"/>
     </row>
     <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A238" s="21"/>
+      <c r="A238" s="13"/>
     </row>
     <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A239" s="22"/>
+      <c r="A239" s="12"/>
     </row>
     <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A240" s="21"/>
+      <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A241" s="22"/>
+      <c r="A241" s="12"/>
     </row>
     <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A242" s="21"/>
+      <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A243" s="22"/>
+      <c r="A243" s="12"/>
     </row>
     <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A244" s="21"/>
+      <c r="A244" s="13"/>
     </row>
     <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A245" s="22"/>
+      <c r="A245" s="12"/>
     </row>
     <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A246" s="21"/>
+      <c r="A246" s="13"/>
     </row>
     <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A247" s="22"/>
+      <c r="A247" s="12"/>
     </row>
     <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A248" s="21"/>
+      <c r="A248" s="13"/>
     </row>
     <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A249" s="22"/>
+      <c r="A249" s="12"/>
     </row>
     <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A250" s="21"/>
+      <c r="A250" s="13"/>
     </row>
     <row r="251" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A251" s="22"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="17"/>
-    </row>
-    <row r="253" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A253" s="18"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="17"/>
-    </row>
-    <row r="255" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A255" s="19"/>
+      <c r="A251" s="12"/>
+    </row>
+    <row r="252" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A252" s="13"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="8"/>
+    </row>
+    <row r="254" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A254" s="9"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="8"/>
     </row>
     <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A256" s="20"/>
+      <c r="A256" s="10"/>
     </row>
     <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A257" s="21"/>
+      <c r="A257" s="11"/>
     </row>
     <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A258" s="22"/>
+      <c r="A258" s="12"/>
     </row>
     <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A259" s="21"/>
+      <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A260" s="22"/>
+      <c r="A260" s="12"/>
     </row>
     <row r="261" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A261" s="21"/>
+      <c r="A261" s="13"/>
     </row>
     <row r="262" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A262" s="22"/>
+      <c r="A262" s="12"/>
     </row>
     <row r="263" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A263" s="21"/>
+      <c r="A263" s="13"/>
     </row>
     <row r="264" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A264" s="22"/>
+      <c r="A264" s="12"/>
     </row>
     <row r="265" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A265" s="21"/>
+      <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A266" s="22"/>
+      <c r="A266" s="12"/>
     </row>
     <row r="267" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A267" s="21"/>
+      <c r="A267" s="13"/>
     </row>
     <row r="268" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A268" s="22"/>
+      <c r="A268" s="12"/>
     </row>
     <row r="269" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A269" s="21"/>
+      <c r="A269" s="13"/>
     </row>
     <row r="270" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A270" s="22"/>
+      <c r="A270" s="12"/>
     </row>
     <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A271" s="21"/>
+      <c r="A271" s="13"/>
     </row>
     <row r="272" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A272" s="22"/>
+      <c r="A272" s="12"/>
     </row>
     <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A273" s="21"/>
+      <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A274" s="22"/>
+      <c r="A274" s="12"/>
     </row>
     <row r="275" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A275" s="21"/>
+      <c r="A275" s="13"/>
     </row>
     <row r="276" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A276" s="22"/>
+      <c r="A276" s="12"/>
     </row>
     <row r="277" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A277" s="21"/>
+      <c r="A277" s="13"/>
     </row>
     <row r="278" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A278" s="22"/>
+      <c r="A278" s="12"/>
     </row>
     <row r="279" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A279" s="21"/>
+      <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A280" s="22"/>
+      <c r="A280" s="12"/>
     </row>
     <row r="281" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A281" s="21"/>
+      <c r="A281" s="13"/>
     </row>
     <row r="282" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A282" s="22"/>
+      <c r="A282" s="12"/>
     </row>
     <row r="283" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A283" s="21"/>
+      <c r="A283" s="13"/>
     </row>
     <row r="284" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A284" s="22"/>
+      <c r="A284" s="12"/>
     </row>
     <row r="285" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A285" s="21"/>
+      <c r="A285" s="13"/>
     </row>
     <row r="286" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A286" s="22"/>
+      <c r="A286" s="12"/>
     </row>
     <row r="287" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A287" s="21"/>
+      <c r="A287" s="13"/>
     </row>
     <row r="288" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A288" s="22"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="17"/>
-    </row>
-    <row r="290" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A290" s="18"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="17"/>
-    </row>
-    <row r="292" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A292" s="19"/>
+      <c r="A288" s="12"/>
+    </row>
+    <row r="289" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A289" s="13"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="8"/>
+    </row>
+    <row r="291" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A291" s="9"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="8"/>
     </row>
     <row r="293" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A293" s="20"/>
+      <c r="A293" s="10"/>
     </row>
     <row r="294" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A294" s="21"/>
+      <c r="A294" s="11"/>
     </row>
     <row r="295" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A295" s="22"/>
+      <c r="A295" s="12"/>
     </row>
     <row r="296" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A296" s="21"/>
+      <c r="A296" s="13"/>
     </row>
     <row r="297" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A297" s="22"/>
+      <c r="A297" s="12"/>
     </row>
     <row r="298" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A298" s="21"/>
+      <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A299" s="22"/>
+      <c r="A299" s="12"/>
     </row>
     <row r="300" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A300" s="21"/>
+      <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A301" s="22"/>
+      <c r="A301" s="12"/>
     </row>
     <row r="302" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A302" s="21"/>
+      <c r="A302" s="13"/>
     </row>
     <row r="303" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A303" s="22"/>
+      <c r="A303" s="12"/>
     </row>
     <row r="304" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A304" s="21"/>
+      <c r="A304" s="13"/>
     </row>
     <row r="305" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A305" s="22"/>
+      <c r="A305" s="12"/>
     </row>
     <row r="306" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A306" s="21"/>
+      <c r="A306" s="13"/>
     </row>
     <row r="307" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A307" s="22"/>
+      <c r="A307" s="12"/>
     </row>
     <row r="308" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A308" s="21"/>
+      <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A309" s="22"/>
+      <c r="A309" s="12"/>
     </row>
     <row r="310" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A310" s="21"/>
+      <c r="A310" s="13"/>
     </row>
     <row r="311" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A311" s="22"/>
+      <c r="A311" s="12"/>
     </row>
     <row r="312" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A312" s="21"/>
+      <c r="A312" s="13"/>
     </row>
     <row r="313" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A313" s="22"/>
+      <c r="A313" s="12"/>
     </row>
     <row r="314" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A314" s="21"/>
+      <c r="A314" s="13"/>
     </row>
     <row r="315" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A315" s="22"/>
+      <c r="A315" s="12"/>
     </row>
     <row r="316" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A316" s="21"/>
+      <c r="A316" s="13"/>
     </row>
     <row r="317" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A317" s="22"/>
+      <c r="A317" s="12"/>
     </row>
     <row r="318" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A318" s="21"/>
+      <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A319" s="22"/>
+      <c r="A319" s="12"/>
     </row>
     <row r="320" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A320" s="21"/>
+      <c r="A320" s="13"/>
     </row>
     <row r="321" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A321" s="22"/>
+      <c r="A321" s="12"/>
     </row>
     <row r="322" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A322" s="21"/>
+      <c r="A322" s="13"/>
     </row>
     <row r="323" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A323" s="22"/>
+      <c r="A323" s="12"/>
     </row>
     <row r="324" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A324" s="21"/>
+      <c r="A324" s="13"/>
     </row>
     <row r="325" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A325" s="22"/>
+      <c r="A325" s="12"/>
     </row>
     <row r="326" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A326" s="21"/>
+      <c r="A326" s="13"/>
     </row>
     <row r="327" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A327" s="22"/>
+      <c r="A327" s="12"/>
     </row>
     <row r="328" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A328" s="21"/>
+      <c r="A328" s="13"/>
     </row>
     <row r="329" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A329" s="22"/>
+      <c r="A329" s="12"/>
     </row>
     <row r="330" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A330" s="21"/>
+      <c r="A330" s="13"/>
     </row>
     <row r="331" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A331" s="22"/>
+      <c r="A331" s="12"/>
     </row>
     <row r="332" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A332" s="21"/>
+      <c r="A332" s="13"/>
     </row>
     <row r="333" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A333" s="22"/>
+      <c r="A333" s="12"/>
     </row>
     <row r="334" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A334" s="21"/>
+      <c r="A334" s="13"/>
     </row>
     <row r="335" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A335" s="22"/>
+      <c r="A335" s="12"/>
     </row>
     <row r="336" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A336" s="21"/>
+      <c r="A336" s="13"/>
     </row>
     <row r="337" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A337" s="22"/>
+      <c r="A337" s="12"/>
     </row>
     <row r="338" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A338" s="21"/>
+      <c r="A338" s="13"/>
     </row>
     <row r="339" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A339" s="22"/>
+      <c r="A339" s="12"/>
     </row>
     <row r="340" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A340" s="21"/>
+      <c r="A340" s="13"/>
     </row>
     <row r="341" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A341" s="22"/>
+      <c r="A341" s="12"/>
     </row>
     <row r="342" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A342" s="21"/>
+      <c r="A342" s="13"/>
     </row>
     <row r="343" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A343" s="22"/>
+      <c r="A343" s="12"/>
     </row>
     <row r="344" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A344" s="21"/>
+      <c r="A344" s="13"/>
     </row>
     <row r="345" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A345" s="22"/>
+      <c r="A345" s="12"/>
     </row>
     <row r="346" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A346" s="21"/>
+      <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A347" s="22"/>
+      <c r="A347" s="12"/>
     </row>
     <row r="348" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A348" s="21"/>
+      <c r="A348" s="13"/>
     </row>
     <row r="349" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A349" s="22"/>
+      <c r="A349" s="12"/>
     </row>
     <row r="350" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A350" s="21"/>
+      <c r="A350" s="13"/>
     </row>
     <row r="351" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A351" s="22"/>
+      <c r="A351" s="12"/>
     </row>
     <row r="352" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A352" s="21"/>
+      <c r="A352" s="13"/>
     </row>
     <row r="353" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A353" s="22"/>
+      <c r="A353" s="12"/>
     </row>
     <row r="354" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A354" s="21"/>
+      <c r="A354" s="13"/>
     </row>
     <row r="355" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A355" s="22"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="17"/>
-    </row>
-    <row r="357" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A357" s="18"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="17"/>
-    </row>
-    <row r="359" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A359" s="19"/>
+      <c r="A355" s="12"/>
+    </row>
+    <row r="356" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A356" s="13"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="8"/>
+    </row>
+    <row r="358" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A358" s="9"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="8"/>
     </row>
     <row r="360" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A360" s="20"/>
+      <c r="A360" s="10"/>
     </row>
     <row r="361" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A361" s="21"/>
+      <c r="A361" s="11"/>
     </row>
     <row r="362" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A362" s="22"/>
+      <c r="A362" s="12"/>
     </row>
     <row r="363" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A363" s="21"/>
+      <c r="A363" s="13"/>
     </row>
     <row r="364" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A364" s="22"/>
+      <c r="A364" s="12"/>
     </row>
     <row r="365" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A365" s="21"/>
+      <c r="A365" s="13"/>
     </row>
     <row r="366" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A366" s="22"/>
+      <c r="A366" s="12"/>
     </row>
     <row r="367" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A367" s="21"/>
+      <c r="A367" s="13"/>
     </row>
     <row r="368" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A368" s="22"/>
+      <c r="A368" s="12"/>
     </row>
     <row r="369" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A369" s="21"/>
+      <c r="A369" s="13"/>
     </row>
     <row r="370" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A370" s="22"/>
+      <c r="A370" s="12"/>
     </row>
     <row r="371" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A371" s="21"/>
+      <c r="A371" s="13"/>
     </row>
     <row r="372" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A372" s="22"/>
+      <c r="A372" s="12"/>
     </row>
     <row r="373" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A373" s="21"/>
+      <c r="A373" s="13"/>
     </row>
     <row r="374" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A374" s="22"/>
+      <c r="A374" s="12"/>
     </row>
     <row r="375" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A375" s="21"/>
+      <c r="A375" s="13"/>
     </row>
     <row r="376" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A376" s="22"/>
+      <c r="A376" s="12"/>
     </row>
     <row r="377" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A377" s="21"/>
+      <c r="A377" s="13"/>
     </row>
     <row r="378" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A378" s="22"/>
+      <c r="A378" s="12"/>
     </row>
     <row r="379" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A379" s="21"/>
+      <c r="A379" s="13"/>
     </row>
     <row r="380" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A380" s="22"/>
+      <c r="A380" s="12"/>
     </row>
     <row r="381" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A381" s="21"/>
+      <c r="A381" s="13"/>
     </row>
     <row r="382" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A382" s="22"/>
+      <c r="A382" s="12"/>
     </row>
     <row r="383" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A383" s="21"/>
+      <c r="A383" s="13"/>
     </row>
     <row r="384" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A384" s="22"/>
+      <c r="A384" s="12"/>
     </row>
     <row r="385" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A385" s="21"/>
+      <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A386" s="22"/>
+      <c r="A386" s="12"/>
     </row>
     <row r="387" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A387" s="21"/>
+      <c r="A387" s="13"/>
     </row>
     <row r="388" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A388" s="22"/>
+      <c r="A388" s="12"/>
     </row>
     <row r="389" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A389" s="21"/>
+      <c r="A389" s="13"/>
     </row>
     <row r="390" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A390" s="22"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="17"/>
-    </row>
-    <row r="392" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A392" s="18"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="17"/>
-    </row>
-    <row r="394" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A394" s="19"/>
+      <c r="A390" s="12"/>
+    </row>
+    <row r="391" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A391" s="13"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="8"/>
+    </row>
+    <row r="393" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A393" s="9"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="8"/>
     </row>
     <row r="395" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A395" s="20"/>
+      <c r="A395" s="10"/>
     </row>
     <row r="396" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A396" s="21"/>
+      <c r="A396" s="11"/>
     </row>
     <row r="397" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A397" s="22"/>
+      <c r="A397" s="12"/>
     </row>
     <row r="398" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A398" s="21"/>
+      <c r="A398" s="13"/>
     </row>
     <row r="399" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A399" s="22"/>
+      <c r="A399" s="12"/>
     </row>
     <row r="400" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A400" s="21"/>
+      <c r="A400" s="13"/>
     </row>
     <row r="401" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A401" s="22"/>
+      <c r="A401" s="12"/>
     </row>
     <row r="402" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A402" s="21"/>
+      <c r="A402" s="13"/>
     </row>
     <row r="403" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A403" s="22"/>
+      <c r="A403" s="12"/>
     </row>
     <row r="404" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A404" s="21"/>
+      <c r="A404" s="13"/>
     </row>
     <row r="405" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A405" s="22"/>
+      <c r="A405" s="12"/>
     </row>
     <row r="406" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A406" s="21"/>
+      <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A407" s="22"/>
+      <c r="A407" s="12"/>
     </row>
     <row r="408" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A408" s="21"/>
+      <c r="A408" s="13"/>
     </row>
     <row r="409" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A409" s="22"/>
+      <c r="A409" s="12"/>
     </row>
     <row r="410" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A410" s="21"/>
+      <c r="A410" s="13"/>
     </row>
     <row r="411" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A411" s="22"/>
+      <c r="A411" s="12"/>
     </row>
     <row r="412" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A412" s="21"/>
+      <c r="A412" s="13"/>
     </row>
     <row r="413" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A413" s="22"/>
+      <c r="A413" s="12"/>
     </row>
     <row r="414" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A414" s="21"/>
+      <c r="A414" s="13"/>
     </row>
     <row r="415" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A415" s="22"/>
+      <c r="A415" s="12"/>
     </row>
     <row r="416" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A416" s="21"/>
+      <c r="A416" s="13"/>
     </row>
     <row r="417" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A417" s="22"/>
+      <c r="A417" s="12"/>
     </row>
     <row r="418" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A418" s="21"/>
+      <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A419" s="22"/>
+      <c r="A419" s="12"/>
     </row>
     <row r="420" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A420" s="21"/>
+      <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A421" s="22"/>
+      <c r="A421" s="12"/>
     </row>
     <row r="422" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A422" s="21"/>
+      <c r="A422" s="13"/>
     </row>
     <row r="423" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A423" s="22"/>
+      <c r="A423" s="12"/>
     </row>
     <row r="424" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A424" s="21"/>
+      <c r="A424" s="13"/>
     </row>
     <row r="425" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A425" s="22"/>
+      <c r="A425" s="12"/>
     </row>
     <row r="426" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A426" s="21"/>
+      <c r="A426" s="13"/>
     </row>
     <row r="427" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A427" s="22"/>
+      <c r="A427" s="12"/>
     </row>
     <row r="428" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A428" s="21"/>
+      <c r="A428" s="13"/>
     </row>
     <row r="429" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A429" s="22"/>
+      <c r="A429" s="12"/>
     </row>
     <row r="430" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A430" s="21"/>
+      <c r="A430" s="13"/>
     </row>
     <row r="431" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A431" s="22"/>
+      <c r="A431" s="12"/>
     </row>
     <row r="432" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A432" s="21"/>
+      <c r="A432" s="13"/>
     </row>
     <row r="433" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A433" s="22"/>
+      <c r="A433" s="12"/>
     </row>
     <row r="434" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A434" s="21"/>
+      <c r="A434" s="13"/>
     </row>
     <row r="435" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A435" s="22"/>
+      <c r="A435" s="12"/>
     </row>
     <row r="436" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A436" s="21"/>
+      <c r="A436" s="13"/>
     </row>
     <row r="437" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A437" s="22"/>
+      <c r="A437" s="12"/>
     </row>
     <row r="438" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A438" s="21"/>
+      <c r="A438" s="13"/>
     </row>
     <row r="439" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A439" s="22"/>
+      <c r="A439" s="12"/>
     </row>
     <row r="440" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A440" s="21"/>
+      <c r="A440" s="13"/>
     </row>
     <row r="441" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A441" s="22"/>
+      <c r="A441" s="12"/>
     </row>
     <row r="442" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A442" s="21"/>
+      <c r="A442" s="13"/>
     </row>
     <row r="443" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A443" s="22"/>
+      <c r="A443" s="12"/>
     </row>
     <row r="444" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A444" s="21"/>
+      <c r="A444" s="13"/>
     </row>
     <row r="445" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A445" s="22"/>
+      <c r="A445" s="12"/>
     </row>
     <row r="446" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A446" s="21"/>
+      <c r="A446" s="13"/>
     </row>
     <row r="447" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A447" s="22"/>
+      <c r="A447" s="12"/>
     </row>
     <row r="448" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A448" s="21"/>
+      <c r="A448" s="13"/>
     </row>
     <row r="449" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A449" s="22"/>
+      <c r="A449" s="12"/>
     </row>
     <row r="450" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A450" s="21"/>
+      <c r="A450" s="13"/>
     </row>
     <row r="451" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A451" s="22"/>
+      <c r="A451" s="12"/>
     </row>
     <row r="452" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A452" s="21"/>
+      <c r="A452" s="13"/>
     </row>
     <row r="453" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A453" s="22"/>
+      <c r="A453" s="12"/>
     </row>
     <row r="454" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A454" s="21"/>
+      <c r="A454" s="13"/>
     </row>
     <row r="455" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A455" s="22"/>
+      <c r="A455" s="12"/>
     </row>
     <row r="456" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A456" s="21"/>
+      <c r="A456" s="13"/>
     </row>
     <row r="457" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A457" s="22"/>
+      <c r="A457" s="12"/>
     </row>
     <row r="458" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A458" s="21"/>
+      <c r="A458" s="13"/>
     </row>
     <row r="459" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A459" s="22"/>
+      <c r="A459" s="12"/>
     </row>
     <row r="460" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A460" s="21"/>
+      <c r="A460" s="13"/>
     </row>
     <row r="461" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A461" s="22"/>
+      <c r="A461" s="12"/>
     </row>
     <row r="462" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A462" s="21"/>
+      <c r="A462" s="13"/>
     </row>
     <row r="463" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A463" s="22"/>
+      <c r="A463" s="12"/>
     </row>
     <row r="464" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A464" s="21"/>
+      <c r="A464" s="13"/>
     </row>
     <row r="465" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A465" s="22"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" s="17"/>
-    </row>
-    <row r="467" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A467" s="18"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" s="17"/>
-    </row>
-    <row r="469" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A469" s="21"/>
+      <c r="A465" s="12"/>
+    </row>
+    <row r="466" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A466" s="13"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="8"/>
+    </row>
+    <row r="468" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A468" s="9"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" s="8"/>
     </row>
     <row r="470" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A470" s="22"/>
+      <c r="A470" s="12"/>
     </row>
     <row r="471" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A471" s="21"/>
+      <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A472" s="22"/>
+      <c r="A472" s="12"/>
     </row>
     <row r="473" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A473" s="21"/>
+      <c r="A473" s="13"/>
     </row>
     <row r="474" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A474" s="22"/>
+      <c r="A474" s="12"/>
     </row>
     <row r="475" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A475" s="21"/>
+      <c r="A475" s="13"/>
     </row>
     <row r="476" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A476" s="22"/>
+      <c r="A476" s="12"/>
     </row>
     <row r="477" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A477" s="21"/>
+      <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A478" s="22"/>
+      <c r="A478" s="12"/>
     </row>
     <row r="479" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A479" s="21"/>
+      <c r="A479" s="13"/>
     </row>
     <row r="480" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A480" s="22"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" s="17"/>
-    </row>
-    <row r="482" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A482" s="18"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" s="17"/>
-    </row>
-    <row r="484" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A484" s="21"/>
+      <c r="A480" s="12"/>
+    </row>
+    <row r="481" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A481" s="13"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" s="8"/>
+    </row>
+    <row r="483" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A483" s="9"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" s="8"/>
     </row>
     <row r="485" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A485" s="22"/>
+      <c r="A485" s="12"/>
     </row>
     <row r="486" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A486" s="21"/>
+      <c r="A486" s="13"/>
     </row>
     <row r="487" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A487" s="22"/>
+      <c r="A487" s="12"/>
     </row>
     <row r="488" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A488" s="21"/>
+      <c r="A488" s="13"/>
     </row>
     <row r="489" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A489" s="22"/>
+      <c r="A489" s="12"/>
     </row>
     <row r="490" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A490" s="21"/>
+      <c r="A490" s="13"/>
     </row>
     <row r="491" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A491" s="22"/>
+      <c r="A491" s="12"/>
     </row>
     <row r="492" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A492" s="21"/>
+      <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A493" s="22"/>
+      <c r="A493" s="12"/>
     </row>
     <row r="494" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A494" s="21"/>
+      <c r="A494" s="13"/>
     </row>
     <row r="495" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A495" s="22"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" s="17"/>
-    </row>
-    <row r="497" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A497" s="18"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" s="17"/>
-    </row>
-    <row r="499" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A499" s="21"/>
+      <c r="A495" s="12"/>
+    </row>
+    <row r="496" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A496" s="13"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" s="8"/>
+    </row>
+    <row r="498" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A498" s="9"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" s="8"/>
     </row>
     <row r="500" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A500" s="22"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" s="17"/>
-    </row>
-    <row r="502" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A502" s="18"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A503" s="17"/>
-    </row>
-    <row r="504" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A504" s="19"/>
+      <c r="A500" s="12"/>
+    </row>
+    <row r="501" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A501" s="13"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" s="8"/>
+    </row>
+    <row r="503" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A503" s="9"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" s="8"/>
     </row>
     <row r="505" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A505" s="20"/>
+      <c r="A505" s="10"/>
     </row>
     <row r="506" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A506" s="21"/>
+      <c r="A506" s="11"/>
     </row>
     <row r="507" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A507" s="22"/>
+      <c r="A507" s="12"/>
     </row>
     <row r="508" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A508" s="21"/>
+      <c r="A508" s="13"/>
     </row>
     <row r="509" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A509" s="22"/>
+      <c r="A509" s="12"/>
     </row>
     <row r="510" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A510" s="21"/>
+      <c r="A510" s="13"/>
     </row>
     <row r="511" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A511" s="22"/>
+      <c r="A511" s="12"/>
     </row>
     <row r="512" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A512" s="21"/>
+      <c r="A512" s="13"/>
     </row>
     <row r="513" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A513" s="22"/>
+      <c r="A513" s="12"/>
     </row>
     <row r="514" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A514" s="21"/>
+      <c r="A514" s="13"/>
     </row>
     <row r="515" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A515" s="22"/>
+      <c r="A515" s="12"/>
     </row>
     <row r="516" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A516" s="21"/>
+      <c r="A516" s="13"/>
     </row>
     <row r="517" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A517" s="22"/>
+      <c r="A517" s="12"/>
     </row>
     <row r="518" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A518" s="21"/>
+      <c r="A518" s="13"/>
     </row>
     <row r="519" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A519" s="22"/>
+      <c r="A519" s="12"/>
     </row>
     <row r="520" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A520" s="21"/>
+      <c r="A520" s="13"/>
     </row>
     <row r="521" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A521" s="22"/>
+      <c r="A521" s="12"/>
     </row>
     <row r="522" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A522" s="21"/>
+      <c r="A522" s="13"/>
     </row>
     <row r="523" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A523" s="22"/>
+      <c r="A523" s="12"/>
     </row>
     <row r="524" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A524" s="21"/>
+      <c r="A524" s="13"/>
     </row>
     <row r="525" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A525" s="22"/>
+      <c r="A525" s="12"/>
     </row>
     <row r="526" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A526" s="21"/>
+      <c r="A526" s="13"/>
     </row>
     <row r="527" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A527" s="22"/>
+      <c r="A527" s="12"/>
     </row>
     <row r="528" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A528" s="21"/>
+      <c r="A528" s="13"/>
     </row>
     <row r="529" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A529" s="22"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A530" s="17"/>
-    </row>
-    <row r="531" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A531" s="18"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A532" s="17"/>
-    </row>
-    <row r="533" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A533" s="21"/>
+      <c r="A529" s="12"/>
+    </row>
+    <row r="530" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A530" s="13"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" s="8"/>
+    </row>
+    <row r="532" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A532" s="9"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" s="8"/>
     </row>
     <row r="534" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A534" s="22"/>
+      <c r="A534" s="12"/>
     </row>
     <row r="535" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A535" s="21"/>
+      <c r="A535" s="13"/>
     </row>
     <row r="536" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A536" s="22"/>
+      <c r="A536" s="12"/>
     </row>
     <row r="537" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A537" s="21"/>
+      <c r="A537" s="13"/>
     </row>
     <row r="538" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A538" s="22"/>
+      <c r="A538" s="12"/>
     </row>
     <row r="539" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A539" s="21"/>
+      <c r="A539" s="13"/>
     </row>
     <row r="540" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A540" s="22"/>
+      <c r="A540" s="12"/>
     </row>
     <row r="541" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A541" s="21"/>
+      <c r="A541" s="13"/>
     </row>
     <row r="542" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A542" s="22"/>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A543" s="17"/>
-    </row>
-    <row r="544" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A544" s="18"/>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A545" s="17"/>
-    </row>
-    <row r="546" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A546" s="21"/>
+      <c r="A542" s="12"/>
+    </row>
+    <row r="543" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A543" s="13"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" s="8"/>
+    </row>
+    <row r="545" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A545" s="9"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" s="8"/>
     </row>
     <row r="547" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A547" s="22"/>
+      <c r="A547" s="12"/>
     </row>
     <row r="548" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A548" s="21"/>
+      <c r="A548" s="13"/>
     </row>
     <row r="549" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A549" s="22"/>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A550" s="17"/>
-    </row>
-    <row r="551" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A551" s="18"/>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A552" s="17"/>
-    </row>
-    <row r="553" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A553" s="21"/>
+      <c r="A549" s="12"/>
+    </row>
+    <row r="550" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A550" s="13"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" s="8"/>
+    </row>
+    <row r="552" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A552" s="9"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" s="8"/>
     </row>
     <row r="554" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A554" s="22"/>
+      <c r="A554" s="12"/>
     </row>
     <row r="555" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A555" s="21"/>
+      <c r="A555" s="13"/>
     </row>
     <row r="556" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A556" s="22"/>
+      <c r="A556" s="12"/>
     </row>
     <row r="557" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A557" s="21"/>
+      <c r="A557" s="13"/>
     </row>
     <row r="558" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A558" s="22"/>
+      <c r="A558" s="12"/>
     </row>
     <row r="559" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A559" s="21"/>
+      <c r="A559" s="13"/>
     </row>
     <row r="560" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A560" s="23"/>
+      <c r="A560" s="12"/>
     </row>
     <row r="561" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A561" s="21"/>
+      <c r="A561" s="14"/>
     </row>
     <row r="562" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A562" s="22"/>
+      <c r="A562" s="12"/>
     </row>
     <row r="563" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A563" s="21"/>
+      <c r="A563" s="13"/>
     </row>
     <row r="564" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A564" s="23"/>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A565" s="17"/>
-    </row>
-    <row r="566" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A566" s="18"/>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A567" s="17"/>
-    </row>
-    <row r="568" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A568" s="21"/>
+      <c r="A564" s="12"/>
+    </row>
+    <row r="565" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A565" s="14"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" s="8"/>
+    </row>
+    <row r="567" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A567" s="9"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" s="8"/>
     </row>
     <row r="569" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A569" s="22"/>
+      <c r="A569" s="12"/>
     </row>
     <row r="570" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A570" s="21"/>
+      <c r="A570" s="13"/>
     </row>
     <row r="571" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A571" s="22"/>
+      <c r="A571" s="12"/>
     </row>
     <row r="572" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A572" s="21"/>
+      <c r="A572" s="13"/>
     </row>
     <row r="573" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A573" s="22"/>
+      <c r="A573" s="12"/>
+    </row>
+    <row r="574" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A574" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:E1" r:id="rId1" display="CKA - Udemy"/>
+    <hyperlink ref="A1:G1" r:id="rId1" display="CKA - Udemy"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -246,9 +246,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Not started</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>Cycle1</t>
+  </si>
+  <si>
+    <t>In Prorgess</t>
   </si>
 </sst>
 </file>
@@ -592,6 +592,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -619,7 +621,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,7 +630,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,298 +1048,298 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="27">
         <v>44317</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="27">
         <v>44323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>0.15</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="27">
         <v>44324</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="27">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>0.2</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="27">
         <v>44331</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="27">
         <v>44337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="27">
         <v>44338</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="27">
         <v>44344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6">
         <v>0.3</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="27">
         <v>44345</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="27">
         <v>44351</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,15 +1430,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
@@ -1448,11 +1448,11 @@
         <v>54</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="35" t="s">
@@ -1462,14 +1462,14 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1489,7 +1489,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
@@ -1506,12 +1506,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>72</v>
+      <c r="B6" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="4">
         <v>44424</v>
@@ -1527,8 +1527,8 @@
       <c r="A7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>73</v>
+      <c r="B7" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="4">
         <v>44427</v>
@@ -1545,13 +1545,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D8" s="4">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1562,13 +1562,13 @@
         <v>61</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="D9" s="4">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1579,13 +1579,13 @@
         <v>62</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4">
-        <v>44434</v>
+        <v>44439</v>
       </c>
       <c r="D10" s="4">
-        <v>44439</v>
+        <v>44442</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1596,13 +1596,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="D11" s="4">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1613,13 +1613,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="D12" s="4">
-        <v>44447</v>
+        <v>44459</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1630,13 +1630,13 @@
         <v>64</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4">
-        <v>44448</v>
+        <v>44460</v>
       </c>
       <c r="D13" s="4">
-        <v>44448</v>
+        <v>44460</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1647,13 +1647,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="4">
-        <v>44449</v>
+        <v>44461</v>
       </c>
       <c r="D14" s="4">
-        <v>44449</v>
+        <v>44461</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1664,13 +1664,13 @@
         <v>66</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4">
-        <v>44452</v>
+        <v>44462</v>
       </c>
       <c r="D15" s="4">
-        <v>44453</v>
+        <v>44463</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1681,13 +1681,13 @@
         <v>67</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4">
-        <v>44454</v>
+        <v>44466</v>
       </c>
       <c r="D16" s="4">
-        <v>44454</v>
+        <v>44466</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1698,13 +1698,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4">
-        <v>44454</v>
+        <v>44467</v>
       </c>
       <c r="D17" s="4">
-        <v>44454</v>
+        <v>44467</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1715,13 +1715,13 @@
         <v>69</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4">
-        <v>44455</v>
+        <v>44468</v>
       </c>
       <c r="D18" s="4">
-        <v>44456</v>
+        <v>44469</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1732,13 +1732,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3436,17 +3436,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +3469,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>54</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1"/>
     </row>

--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -273,7 +273,7 @@
     <t>Cycle1</t>
   </si>
   <si>
-    <t>In Prorgess</t>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -648,6 +648,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
@@ -1417,7 +1418,7 @@
   <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,8 +1528,8 @@
       <c r="A7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>81</v>
+      <c r="B7" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="4">
         <v>44427</v>
@@ -1544,8 +1545,8 @@
       <c r="A8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>72</v>
+      <c r="B8" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C8" s="4">
         <v>44431</v>

--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -594,6 +594,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -610,15 +620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,7 +649,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
@@ -1049,298 +1049,298 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="22">
         <v>44317</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="22">
         <v>44323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>0.15</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="22">
         <v>44324</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="22">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>0.2</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="22">
         <v>44331</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="22">
         <v>44337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="22">
         <v>44338</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="22">
         <v>44344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6">
         <v>0.3</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="22">
         <v>44345</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="22">
         <v>44351</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1392,6 +1392,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A34"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="C9:C15"/>
@@ -1402,11 +1407,6 @@
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C28:C34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,38 +1431,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="G3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1528,7 +1528,7 @@
       <c r="A7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="4">
@@ -1545,8 +1545,8 @@
       <c r="A8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>81</v>
+      <c r="B8" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="4">
         <v>44431</v>
@@ -1562,8 +1562,8 @@
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>72</v>
+      <c r="B9" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="4">
         <v>44434</v>
@@ -1579,8 +1579,8 @@
       <c r="A10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>72</v>
+      <c r="B10" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="4">
         <v>44439</v>

--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -595,15 +595,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -620,6 +611,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,298 +1049,298 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="28">
         <v>44317</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="28">
         <v>44323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>0.15</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="28">
         <v>44324</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="28">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>0.2</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="28">
         <v>44331</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="28">
         <v>44337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="28">
         <v>44338</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="28">
         <v>44344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6">
         <v>0.3</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="28">
         <v>44345</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="28">
         <v>44351</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1392,11 +1392,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A34"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="C9:C15"/>
@@ -1407,6 +1402,11 @@
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C28:C34"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1579,8 +1579,8 @@
       <c r="A10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>81</v>
+      <c r="B10" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="4">
         <v>44439</v>
@@ -1596,8 +1596,8 @@
       <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>72</v>
+      <c r="B11" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="4">
         <v>44445</v>

--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,8 +1596,8 @@
       <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>81</v>
+      <c r="B11" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C11" s="4">
         <v>44445</v>
@@ -1613,8 +1613,8 @@
       <c r="A12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>72</v>
+      <c r="B12" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="4">
         <v>44452</v>

--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Cluster Architecture, Installation &amp; Configuration</t>
   </si>
@@ -273,14 +273,14 @@
     <t>Cycle1</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>CNI plugin for Docker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,13 +307,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,11 +382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -547,14 +535,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,33 +555,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -613,48 +608,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1023,7 +1008,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,298 +1034,298 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="21">
         <v>44317</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="21">
         <v>44323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>0.15</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="21">
         <v>44324</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="21">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>0.2</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="21">
         <v>44331</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="21">
         <v>44337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="21">
         <v>44338</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="21">
         <v>44344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6">
         <v>0.3</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="21">
         <v>44345</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="21">
         <v>44351</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1392,6 +1377,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A34"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="C9:C15"/>
@@ -1402,11 +1392,6 @@
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C28:C34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1418,7 +1403,7 @@
   <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B12" sqref="B4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,47 +1416,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1528,7 +1513,7 @@
       <c r="A7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="4">
@@ -1545,7 +1530,7 @@
       <c r="A8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="4">
@@ -1562,7 +1547,7 @@
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="4">
@@ -1579,7 +1564,7 @@
       <c r="A10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4">
@@ -1596,7 +1581,7 @@
       <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="4">
@@ -1613,14 +1598,14 @@
       <c r="A12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>81</v>
+      <c r="B12" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="4">
         <v>44452</v>
       </c>
       <c r="D12" s="4">
-        <v>44459</v>
+        <v>44464</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1634,10 +1619,10 @@
         <v>72</v>
       </c>
       <c r="C13" s="4">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="D13" s="4">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1651,10 +1636,10 @@
         <v>72</v>
       </c>
       <c r="C14" s="4">
-        <v>44461</v>
+        <v>44467</v>
       </c>
       <c r="D14" s="4">
-        <v>44461</v>
+        <v>44467</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1668,10 +1653,10 @@
         <v>72</v>
       </c>
       <c r="C15" s="4">
-        <v>44462</v>
+        <v>44468</v>
       </c>
       <c r="D15" s="4">
-        <v>44463</v>
+        <v>44469</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1685,10 +1670,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="4">
-        <v>44466</v>
+        <v>44470</v>
       </c>
       <c r="D16" s="4">
-        <v>44466</v>
+        <v>44470</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1702,10 +1687,10 @@
         <v>72</v>
       </c>
       <c r="C17" s="4">
-        <v>44467</v>
+        <v>44473</v>
       </c>
       <c r="D17" s="4">
-        <v>44467</v>
+        <v>44473</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1719,10 +1704,10 @@
         <v>72</v>
       </c>
       <c r="C18" s="4">
-        <v>44468</v>
+        <v>44474</v>
       </c>
       <c r="D18" s="4">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3460,7 +3445,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3483,7 +3468,9 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>Cluster Architecture, Installation &amp; Configuration</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Toubleshooting</t>
   </si>
   <si>
-    <t>Other Topics</t>
-  </si>
-  <si>
     <t>Lightning labs</t>
   </si>
   <si>
@@ -274,13 +271,49 @@
   </si>
   <si>
     <t>CNI plugin for Docker</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>CKA Exam Preparation</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Real Time Application with K8s</t>
+  </si>
+  <si>
+    <t>CKA Mock1</t>
+  </si>
+  <si>
+    <t>CKA Mock2</t>
+  </si>
+  <si>
+    <t>Sample YAMLs for all K8s Objects</t>
+  </si>
+  <si>
+    <t>K8s Cheat Sheet Preparation</t>
+  </si>
+  <si>
+    <t>Using Vagrent Install NonStop</t>
+  </si>
+  <si>
+    <t>Tool to guide developer to identify design patterns to solve a for a problem</t>
+  </si>
+  <si>
+    <t>Other Topics(JSON PATH)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +398,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF1C1D1F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +448,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -534,14 +586,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -581,14 +669,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -607,6 +705,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -636,10 +752,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1034,298 +1151,298 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="36">
         <v>44317</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="36">
         <v>44323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>0.15</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="36">
         <v>44324</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="36">
         <v>44330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>0.2</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="36">
         <v>44331</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="36">
         <v>44337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="36">
         <v>44338</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="36">
         <v>44344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6">
         <v>0.3</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="36">
         <v>44345</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="36">
         <v>44351</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1377,11 +1494,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A34"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="C9:C15"/>
@@ -1392,6 +1504,11 @@
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C28:C34"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1400,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G574"/>
+  <dimension ref="A1:G576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B4:B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,54 +1533,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4">
         <v>44417</v>
@@ -1480,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4">
         <v>44417</v>
@@ -1497,7 +1618,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4">
         <v>44424</v>
@@ -1514,7 +1635,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4">
         <v>44427</v>
@@ -1531,7 +1652,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4">
         <v>44431</v>
@@ -1548,7 +1669,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4">
         <v>44434</v>
@@ -1565,7 +1686,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4">
         <v>44439</v>
@@ -1582,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4">
         <v>44445</v>
@@ -1599,7 +1720,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4">
         <v>44452</v>
@@ -1615,8 +1736,8 @@
       <c r="A13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>72</v>
+      <c r="B13" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="4">
         <v>44466</v>
@@ -1632,8 +1753,8 @@
       <c r="A14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>72</v>
+      <c r="B14" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="4">
         <v>44467</v>
@@ -1649,14 +1770,14 @@
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>72</v>
+      <c r="B15" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="4">
         <v>44468</v>
       </c>
       <c r="D15" s="4">
-        <v>44469</v>
+        <v>44479</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1664,16 +1785,16 @@
     </row>
     <row r="16" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="4">
-        <v>44470</v>
+        <v>44487</v>
       </c>
       <c r="D16" s="4">
-        <v>44470</v>
+        <v>44490</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1681,16 +1802,16 @@
     </row>
     <row r="17" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4">
-        <v>44473</v>
+        <v>44491</v>
       </c>
       <c r="D17" s="4">
-        <v>44473</v>
+        <v>44495</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1698,16 +1819,16 @@
     </row>
     <row r="18" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="4">
-        <v>44474</v>
+        <v>44495</v>
       </c>
       <c r="D18" s="4">
-        <v>44474</v>
+        <v>44495</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1715,54 +1836,172 @@
     </row>
     <row r="19" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44496</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44496</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44506</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44512</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="D21" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44512</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44514</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44515</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44515</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44516</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44516</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44517</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44517</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
@@ -1825,16 +2064,16 @@
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
+      <c r="A52" s="12"/>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+      <c r="A53" s="13"/>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+      <c r="A55" s="11"/>
     </row>
     <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
@@ -1975,37 +2214,37 @@
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A102" s="10"/>
+      <c r="A102" s="12"/>
     </row>
     <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A103" s="11"/>
+      <c r="A103" s="13"/>
     </row>
     <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
+      <c r="A104" s="10"/>
     </row>
     <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="9"/>
+      <c r="A105" s="11"/>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A106" s="12"/>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
     </row>
-    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-    </row>
-    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A110" s="11"/>
+    <row r="109" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A109" s="9"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8"/>
     </row>
     <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
+      <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
+      <c r="A112" s="11"/>
     </row>
     <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="12"/>
@@ -2187,26 +2426,26 @@
     <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A174" s="9"/>
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A173" s="12"/>
+    </row>
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
     </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A176" s="10"/>
-    </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A177" s="11"/>
+    <row r="176" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A176" s="9"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8"/>
     </row>
     <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A178" s="12"/>
+      <c r="A178" s="10"/>
     </row>
     <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
+      <c r="A179" s="11"/>
     </row>
     <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A180" s="12"/>
@@ -2250,26 +2489,26 @@
     <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="195" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A195" s="9"/>
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A194" s="12"/>
+    </row>
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A195" s="13"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A197" s="10"/>
-    </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
+    <row r="197" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A197" s="9"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="8"/>
     </row>
     <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A199" s="12"/>
+      <c r="A199" s="10"/>
     </row>
     <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A200" s="13"/>
+      <c r="A200" s="11"/>
     </row>
     <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="12"/>
@@ -2427,26 +2666,26 @@
     <row r="252" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-    </row>
-    <row r="254" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A254" s="9"/>
+    <row r="253" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A253" s="12"/>
+    </row>
+    <row r="254" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A254" s="13"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
     </row>
-    <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A256" s="10"/>
-    </row>
-    <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A257" s="11"/>
+    <row r="256" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A256" s="9"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="8"/>
     </row>
     <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A258" s="12"/>
+      <c r="A258" s="10"/>
     </row>
     <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A259" s="13"/>
+      <c r="A259" s="11"/>
     </row>
     <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A260" s="12"/>
@@ -2538,26 +2777,26 @@
     <row r="289" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A289" s="13"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="8"/>
-    </row>
-    <row r="291" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A291" s="9"/>
+    <row r="290" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A290" s="12"/>
+    </row>
+    <row r="291" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A291" s="13"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
     </row>
-    <row r="293" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A293" s="10"/>
-    </row>
-    <row r="294" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A294" s="11"/>
+    <row r="293" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A293" s="9"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="8"/>
     </row>
     <row r="295" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A295" s="12"/>
+      <c r="A295" s="10"/>
     </row>
     <row r="296" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A296" s="13"/>
+      <c r="A296" s="11"/>
     </row>
     <row r="297" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A297" s="12"/>
@@ -2739,26 +2978,26 @@
     <row r="356" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A356" s="13"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" s="8"/>
-    </row>
-    <row r="358" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A358" s="9"/>
+    <row r="357" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A357" s="12"/>
+    </row>
+    <row r="358" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
     </row>
-    <row r="360" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A360" s="10"/>
-    </row>
-    <row r="361" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A361" s="11"/>
+    <row r="360" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A360" s="9"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="8"/>
     </row>
     <row r="362" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A362" s="12"/>
+      <c r="A362" s="10"/>
     </row>
     <row r="363" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A363" s="13"/>
+      <c r="A363" s="11"/>
     </row>
     <row r="364" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A364" s="12"/>
@@ -2844,26 +3083,26 @@
     <row r="391" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A391" s="13"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="8"/>
-    </row>
-    <row r="393" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A393" s="9"/>
+    <row r="392" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A392" s="12"/>
+    </row>
+    <row r="393" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="8"/>
     </row>
-    <row r="395" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A395" s="10"/>
-    </row>
-    <row r="396" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A396" s="11"/>
+    <row r="395" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A395" s="9"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="8"/>
     </row>
     <row r="397" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A397" s="12"/>
+      <c r="A397" s="10"/>
     </row>
     <row r="398" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A398" s="13"/>
+      <c r="A398" s="11"/>
     </row>
     <row r="399" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A399" s="12"/>
@@ -3069,20 +3308,20 @@
     <row r="466" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A466" s="13"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" s="8"/>
-    </row>
-    <row r="468" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A468" s="9"/>
+    <row r="467" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A467" s="12"/>
+    </row>
+    <row r="468" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="8"/>
     </row>
-    <row r="470" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A470" s="12"/>
-    </row>
-    <row r="471" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A471" s="13"/>
+    <row r="470" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A470" s="9"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" s="8"/>
     </row>
     <row r="472" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A472" s="12"/>
@@ -3114,20 +3353,20 @@
     <row r="481" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A481" s="13"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" s="8"/>
-    </row>
-    <row r="483" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A483" s="9"/>
+    <row r="482" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A482" s="12"/>
+    </row>
+    <row r="483" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A483" s="13"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="8"/>
     </row>
-    <row r="485" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A485" s="12"/>
-    </row>
-    <row r="486" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A486" s="13"/>
+    <row r="485" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A485" s="9"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" s="8"/>
     </row>
     <row r="487" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A487" s="12"/>
@@ -3159,41 +3398,41 @@
     <row r="496" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A496" s="13"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" s="8"/>
-    </row>
-    <row r="498" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A498" s="9"/>
+    <row r="497" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A497" s="12"/>
+    </row>
+    <row r="498" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A498" s="13"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="8"/>
     </row>
-    <row r="500" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A500" s="12"/>
-    </row>
-    <row r="501" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A501" s="13"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502" s="8"/>
-    </row>
-    <row r="503" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A503" s="9"/>
+    <row r="500" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A500" s="9"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" s="8"/>
+    </row>
+    <row r="502" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A502" s="12"/>
+    </row>
+    <row r="503" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A503" s="13"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="8"/>
     </row>
-    <row r="505" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A505" s="10"/>
-    </row>
-    <row r="506" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A506" s="11"/>
+    <row r="505" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A505" s="9"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" s="8"/>
     </row>
     <row r="507" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A507" s="12"/>
+      <c r="A507" s="10"/>
     </row>
     <row r="508" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A508" s="13"/>
+      <c r="A508" s="11"/>
     </row>
     <row r="509" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A509" s="12"/>
@@ -3261,20 +3500,20 @@
     <row r="530" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A530" s="13"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A531" s="8"/>
-    </row>
-    <row r="532" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A532" s="9"/>
+    <row r="531" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A531" s="12"/>
+    </row>
+    <row r="532" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A532" s="13"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="8"/>
     </row>
-    <row r="534" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A534" s="12"/>
-    </row>
-    <row r="535" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A535" s="13"/>
+    <row r="534" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A534" s="9"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="8"/>
     </row>
     <row r="536" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A536" s="12"/>
@@ -3300,20 +3539,20 @@
     <row r="543" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A543" s="13"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A544" s="8"/>
-    </row>
-    <row r="545" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A545" s="9"/>
+    <row r="544" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A544" s="12"/>
+    </row>
+    <row r="545" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A545" s="13"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="8"/>
     </row>
-    <row r="547" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A547" s="12"/>
-    </row>
-    <row r="548" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A548" s="13"/>
+    <row r="547" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A547" s="9"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" s="8"/>
     </row>
     <row r="549" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A549" s="12"/>
@@ -3321,20 +3560,20 @@
     <row r="550" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A550" s="13"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A551" s="8"/>
-    </row>
-    <row r="552" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A552" s="9"/>
+    <row r="551" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A551" s="12"/>
+    </row>
+    <row r="552" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A552" s="13"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="8"/>
     </row>
-    <row r="554" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A554" s="12"/>
-    </row>
-    <row r="555" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A555" s="13"/>
+    <row r="554" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A554" s="9"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" s="8"/>
     </row>
     <row r="556" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A556" s="12"/>
@@ -3352,34 +3591,34 @@
       <c r="A560" s="12"/>
     </row>
     <row r="561" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A561" s="14"/>
+      <c r="A561" s="13"/>
     </row>
     <row r="562" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A562" s="12"/>
     </row>
     <row r="563" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A563" s="13"/>
+      <c r="A563" s="14"/>
     </row>
     <row r="564" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A564" s="12"/>
     </row>
     <row r="565" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A565" s="14"/>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A566" s="8"/>
-    </row>
-    <row r="567" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A567" s="9"/>
+      <c r="A565" s="13"/>
+    </row>
+    <row r="566" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A566" s="12"/>
+    </row>
+    <row r="567" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A567" s="14"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="8"/>
     </row>
-    <row r="569" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A569" s="12"/>
-    </row>
-    <row r="570" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A570" s="13"/>
+    <row r="569" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A569" s="9"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" s="8"/>
     </row>
     <row r="571" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A571" s="12"/>
@@ -3393,8 +3632,15 @@
     <row r="574" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A574" s="13"/>
     </row>
+    <row r="575" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A575" s="12"/>
+    </row>
+    <row r="576" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A576" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -3422,17 +3668,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3445,17 +3691,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>54</v>
@@ -3463,22 +3709,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Plan/CKA-Curriculum-Plan.xlsx
+++ b/Plan/CKA-Curriculum-Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6276" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6276" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Madhusuthanan Vikramaboopathy</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Madhusuthanan Vikramaboopathy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Deployment, Replicaset,Daemonset</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>Cluster Architecture, Installation &amp; Configuration</t>
   </si>
@@ -126,9 +160,6 @@
     <t>Choose an appropriate container network interface plugin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Understand volume mode, access modes and reclaim policies for volumes</t>
-  </si>
-  <si>
     <t>Understand persistent volume claims primitive</t>
   </si>
   <si>
@@ -282,9 +313,6 @@
     <t>Revision</t>
   </si>
   <si>
-    <t>Real Time Application with K8s</t>
-  </si>
-  <si>
     <t>CKA Mock1</t>
   </si>
   <si>
@@ -306,14 +334,29 @@
     <t>Other Topics(JSON PATH)</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Exam Tips and Tricks</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t>Senthil</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Understand volume mode, access modes and reclaim policies for volumes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +454,26 @@
       <color rgb="FF1C1D1F"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -629,7 +692,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -751,6 +814,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -1068,37 +1132,37 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1121,11 +1185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1254,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="37"/>
@@ -1252,7 +1316,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="37"/>
@@ -1268,7 +1332,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="51" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="38"/>
@@ -1290,7 +1354,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="37"/>
@@ -1298,7 +1362,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="37"/>
@@ -1361,7 +1425,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -1369,7 +1433,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -1377,7 +1441,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -1399,7 +1463,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -1407,7 +1471,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -1415,7 +1479,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -1423,7 +1487,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -1431,7 +1495,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
@@ -1439,14 +1503,14 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="4">
@@ -1458,7 +1522,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="4">
@@ -1470,7 +1534,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="4">
@@ -1482,7 +1546,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="4">
@@ -1512,6 +1576,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1519,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1534,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -1545,21 +1610,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1581,10 +1646,10 @@
     </row>
     <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4">
         <v>44417</v>
@@ -1592,16 +1657,22 @@
       <c r="D4" s="4">
         <v>44417</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="4">
+        <v>44516</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44516</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4">
         <v>44417</v>
@@ -1609,16 +1680,22 @@
       <c r="D5" s="4">
         <v>44421</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="4">
+        <v>44516</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44516</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4">
         <v>44424</v>
@@ -1626,16 +1703,22 @@
       <c r="D6" s="4">
         <v>44427</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="4">
+        <v>44516</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44516</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4">
         <v>44427</v>
@@ -1643,16 +1726,22 @@
       <c r="D7" s="4">
         <v>44427</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="4">
+        <v>44517</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44517</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4">
         <v>44431</v>
@@ -1660,16 +1749,22 @@
       <c r="D8" s="4">
         <v>44433</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="4">
+        <v>44517</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44517</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4">
         <v>44434</v>
@@ -1677,16 +1772,22 @@
       <c r="D9" s="4">
         <v>44435</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="4">
+        <v>44517</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44517</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4">
         <v>44439</v>
@@ -1694,16 +1795,22 @@
       <c r="D10" s="4">
         <v>44442</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="4">
+        <v>44518</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44518</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4">
         <v>44445</v>
@@ -1711,16 +1818,22 @@
       <c r="D11" s="4">
         <v>44448</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="4">
+        <v>44518</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44518</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4">
         <v>44452</v>
@@ -1728,16 +1841,22 @@
       <c r="D12" s="4">
         <v>44464</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="4">
+        <v>44519</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44519</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4">
         <v>44466</v>
@@ -1745,16 +1864,22 @@
       <c r="D13" s="4">
         <v>44466</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="4">
+        <v>44520</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44520</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4">
         <v>44467</v>
@@ -1762,16 +1887,22 @@
       <c r="D14" s="4">
         <v>44467</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="4">
+        <v>44520</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44520</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4">
         <v>44468</v>
@@ -1779,16 +1910,22 @@
       <c r="D15" s="4">
         <v>44479</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="4">
+        <v>44521</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44521</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="4">
         <v>44487</v>
@@ -1796,22 +1933,28 @@
       <c r="D16" s="4">
         <v>44490</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="4">
+        <v>44522</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44522</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="C17" s="4">
         <v>44491</v>
       </c>
       <c r="D17" s="4">
-        <v>44495</v>
+        <v>44514</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1819,10 +1962,10 @@
     </row>
     <row r="18" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4">
         <v>44495</v>
@@ -1836,10 +1979,10 @@
     </row>
     <row r="19" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4">
         <v>44496</v>
@@ -1853,10 +1996,10 @@
     </row>
     <row r="20" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4">
         <v>44506</v>
@@ -1870,16 +2013,16 @@
     </row>
     <row r="21" spans="1:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>72</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -1887,7 +2030,7 @@
     </row>
     <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -1898,16 +2041,16 @@
     </row>
     <row r="23" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="D23" s="4">
-        <v>44514</v>
+        <v>44526</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1915,16 +2058,16 @@
     </row>
     <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4">
-        <v>44515</v>
+        <v>44527</v>
       </c>
       <c r="D24" s="4">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1932,33 +2075,29 @@
     </row>
     <row r="25" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4">
-        <v>44516</v>
+        <v>44534</v>
       </c>
       <c r="D26" s="4">
-        <v>44516</v>
+        <v>44534</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1966,16 +2105,16 @@
     </row>
     <row r="27" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4">
-        <v>44517</v>
+        <v>44535</v>
       </c>
       <c r="D27" s="4">
-        <v>44517</v>
+        <v>44535</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1983,13 +2122,17 @@
     </row>
     <row r="28" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44536</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44536</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -3661,24 +3804,24 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3701,33 +3844,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1"/>
     </row>
